--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample14/Sample-14.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample14/Sample-14.xlsx
@@ -198,16 +198,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="nuph5gxi" xfId="1"/>
-    <cellStyle name="nuph5gxi_Alternate" xfId="2"/>
-    <cellStyle name="o5fadwx5" xfId="3"/>
-    <cellStyle name="o5fadwx5_Alternate" xfId="4"/>
-    <cellStyle name="p2gcbfkz" xfId="5"/>
-    <cellStyle name="p2gcbfkz_Alternate" xfId="6"/>
-    <cellStyle name="qkhr5cd1" xfId="7"/>
-    <cellStyle name="qkhr5cd1_Alternate" xfId="8"/>
-    <cellStyle name="crtrblp4" xfId="9"/>
-    <cellStyle name="crtrblp4_Alternate" xfId="10"/>
+    <cellStyle name="ypkvxaxy" xfId="1"/>
+    <cellStyle name="ypkvxaxy_Alternate" xfId="2"/>
+    <cellStyle name="ccrohja2" xfId="3"/>
+    <cellStyle name="ccrohja2_Alternate" xfId="4"/>
+    <cellStyle name="3xda5f0u" xfId="5"/>
+    <cellStyle name="3xda5f0u_Alternate" xfId="6"/>
+    <cellStyle name="ti4llyvl" xfId="7"/>
+    <cellStyle name="ti4llyvl_Alternate" xfId="8"/>
+    <cellStyle name="fqlbm5lq" xfId="9"/>
+    <cellStyle name="fqlbm5lq_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample14/Sample-14.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample14/Sample-14.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Period</t>
   </si>
@@ -38,6 +38,219 @@
   </si>
   <si>
     <t>Australia</t>
+  </si>
+  <si>
+    <t>01/01/2010 0:00:00</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>55,1</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>14,1</t>
+  </si>
+  <si>
+    <t>12,1</t>
+  </si>
+  <si>
+    <t>01/02/2010 0:00:00</t>
+  </si>
+  <si>
+    <t>13,9</t>
+  </si>
+  <si>
+    <t>9,1</t>
+  </si>
+  <si>
+    <t>51,1</t>
+  </si>
+  <si>
+    <t>35,3</t>
+  </si>
+  <si>
+    <t>14,4</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>01/03/2010 0:00:00</t>
+  </si>
+  <si>
+    <t>11,4</t>
+  </si>
+  <si>
+    <t>8,7</t>
+  </si>
+  <si>
+    <t>54,7</t>
+  </si>
+  <si>
+    <t>32,1</t>
+  </si>
+  <si>
+    <t>13,1</t>
+  </si>
+  <si>
+    <t>01/04/2010 0:00:00</t>
+  </si>
+  <si>
+    <t>9,2</t>
+  </si>
+  <si>
+    <t>53,3</t>
+  </si>
+  <si>
+    <t>11,2</t>
+  </si>
+  <si>
+    <t>10,4</t>
+  </si>
+  <si>
+    <t>01/05/2010 0:00:00</t>
+  </si>
+  <si>
+    <t>9,4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>45,3</t>
+  </si>
+  <si>
+    <t>25,8</t>
+  </si>
+  <si>
+    <t>12,4</t>
+  </si>
+  <si>
+    <t>01/06/2010 0:00:00</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>9,8</t>
+  </si>
+  <si>
+    <t>49,4</t>
+  </si>
+  <si>
+    <t>29,2</t>
+  </si>
+  <si>
+    <t>14,2</t>
+  </si>
+  <si>
+    <t>01/07/2010 0:00:00</t>
+  </si>
+  <si>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>31,2</t>
+  </si>
+  <si>
+    <t>14,9</t>
+  </si>
+  <si>
+    <t>01/08/2010 0:00:00</t>
+  </si>
+  <si>
+    <t>19,3</t>
+  </si>
+  <si>
+    <t>10,1</t>
+  </si>
+  <si>
+    <t>49,6</t>
+  </si>
+  <si>
+    <t>13,3</t>
+  </si>
+  <si>
+    <t>01/09/2010 0:00:00</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>41,1</t>
+  </si>
+  <si>
+    <t>14,5</t>
+  </si>
+  <si>
+    <t>9,3</t>
+  </si>
+  <si>
+    <t>01/10/2010 0:00:00</t>
+  </si>
+  <si>
+    <t>23,8</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>16,1</t>
+  </si>
+  <si>
+    <t>01/11/2010 0:00:00</t>
+  </si>
+  <si>
+    <t>25,6</t>
+  </si>
+  <si>
+    <t>10,8</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>33,6</t>
+  </si>
+  <si>
+    <t>13,4</t>
+  </si>
+  <si>
+    <t>01/12/2010 0:00:00</t>
+  </si>
+  <si>
+    <t>17,2</t>
+  </si>
+  <si>
+    <t>12,2</t>
+  </si>
+  <si>
+    <t>43,2</t>
+  </si>
+  <si>
+    <t>35,1</t>
+  </si>
+  <si>
+    <t>15,1</t>
   </si>
   <si>
     <t>Total</t>
@@ -47,10 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0;[Black]\-#,##0.0"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -138,10 +348,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3">
+    <xf numFmtId="49" fontId="1" fillId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2">
+    <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2">
@@ -150,16 +360,16 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="3">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="3">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -171,10 +381,10 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" xfId="3" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="4" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="4" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
@@ -183,31 +393,31 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ypkvxaxy" xfId="1"/>
-    <cellStyle name="ypkvxaxy_Alternate" xfId="2"/>
-    <cellStyle name="ccrohja2" xfId="3"/>
-    <cellStyle name="ccrohja2_Alternate" xfId="4"/>
-    <cellStyle name="3xda5f0u" xfId="5"/>
-    <cellStyle name="3xda5f0u_Alternate" xfId="6"/>
-    <cellStyle name="ti4llyvl" xfId="7"/>
-    <cellStyle name="ti4llyvl_Alternate" xfId="8"/>
-    <cellStyle name="fqlbm5lq" xfId="9"/>
-    <cellStyle name="fqlbm5lq_Alternate" xfId="10"/>
+    <cellStyle name="s5nz2urz" xfId="1"/>
+    <cellStyle name="s5nz2urz_Alternate" xfId="2"/>
+    <cellStyle name="hjogqxk2" xfId="3"/>
+    <cellStyle name="hjogqxk2_Alternate" xfId="4"/>
+    <cellStyle name="jhi5vijc" xfId="5"/>
+    <cellStyle name="jhi5vijc_Alternate" xfId="6"/>
+    <cellStyle name="aepd3254" xfId="7"/>
+    <cellStyle name="aepd3254_Alternate" xfId="8"/>
+    <cellStyle name="3z4kprdw" xfId="9"/>
+    <cellStyle name="3z4kprdw_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -544,7 +754,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="13.0157470703125" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="20.16288185119629" customWidth="1"/>
     <col min="2" max="2" bestFit="1" width="11.045602321624756" customWidth="1"/>
     <col min="3" max="3" bestFit="1" width="10.140625" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="10.140625" customWidth="1"/>
@@ -577,284 +787,284 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>40179</v>
-      </c>
-      <c r="B2" s="7">
-        <v>12.300000190734863</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7">
-        <v>55.099998474121094</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7">
-        <v>14.100000381469727</v>
-      </c>
-      <c r="G2" s="7">
-        <v>12.100000381469727</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>40210</v>
-      </c>
-      <c r="B3" s="8">
-        <v>13.899999618530273</v>
-      </c>
-      <c r="C3" s="8">
-        <v>9.100000381469727</v>
-      </c>
-      <c r="D3" s="8">
-        <v>51.099998474121094</v>
-      </c>
-      <c r="E3" s="8">
-        <v>35.29999923706055</v>
-      </c>
-      <c r="F3" s="8">
-        <v>14.399999618530273</v>
-      </c>
-      <c r="G3" s="8">
-        <v>11.100000381469727</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>40238</v>
-      </c>
-      <c r="B4" s="7">
-        <v>11.399999618530273</v>
-      </c>
-      <c r="C4" s="7">
-        <v>8.699999809265137</v>
-      </c>
-      <c r="D4" s="7">
-        <v>54.70000076293945</v>
-      </c>
-      <c r="E4" s="7">
-        <v>32.099998474121094</v>
-      </c>
-      <c r="F4" s="7">
-        <v>13.100000381469727</v>
-      </c>
-      <c r="G4" s="7">
-        <v>12.300000190734863</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>40269</v>
-      </c>
-      <c r="B5" s="8">
-        <v>12.100000381469727</v>
-      </c>
-      <c r="C5" s="8">
-        <v>9.199999809265137</v>
-      </c>
-      <c r="D5" s="8">
-        <v>53.29999923706055</v>
-      </c>
-      <c r="E5" s="8">
-        <v>35</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11.199999809265137</v>
-      </c>
-      <c r="G5" s="8">
-        <v>10.399999618530273</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>40299</v>
-      </c>
-      <c r="B6" s="7">
-        <v>9.399999618530273</v>
-      </c>
-      <c r="C6" s="7">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7">
-        <v>45.29999923706055</v>
-      </c>
-      <c r="E6" s="7">
-        <v>25.799999237060547</v>
-      </c>
-      <c r="F6" s="7">
-        <v>12.399999618530273</v>
-      </c>
-      <c r="G6" s="7">
-        <v>13.100000381469727</v>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
-        <v>40330</v>
-      </c>
-      <c r="B7" s="8">
-        <v>14.300000190734863</v>
-      </c>
-      <c r="C7" s="8">
-        <v>9.800000190734863</v>
-      </c>
-      <c r="D7" s="8">
-        <v>49.400001525878906</v>
-      </c>
-      <c r="E7" s="8">
-        <v>29.200000762939453</v>
-      </c>
-      <c r="F7" s="8">
-        <v>14.100000381469727</v>
-      </c>
-      <c r="G7" s="8">
-        <v>14.199999809265137</v>
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
-        <v>40360</v>
-      </c>
-      <c r="B8" s="7">
-        <v>7.300000190734863</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
-        <v>50</v>
-      </c>
-      <c r="E8" s="7">
-        <v>31.200000762939453</v>
-      </c>
-      <c r="F8" s="7">
-        <v>14.899999618530273</v>
-      </c>
-      <c r="G8" s="7">
-        <v>12.300000190734863</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>40391</v>
-      </c>
-      <c r="B9" s="8">
-        <v>19.299999237060547</v>
-      </c>
-      <c r="C9" s="8">
-        <v>10.100000381469727</v>
-      </c>
-      <c r="D9" s="8">
-        <v>49.599998474121094</v>
-      </c>
-      <c r="E9" s="8">
-        <v>35</v>
-      </c>
-      <c r="F9" s="8">
-        <v>13.300000190734863</v>
-      </c>
-      <c r="G9" s="8">
-        <v>10.100000381469727</v>
+      <c r="F9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
-        <v>40422</v>
-      </c>
-      <c r="B10" s="7">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7">
-        <v>8.5</v>
-      </c>
-      <c r="D10" s="7">
-        <v>41.099998474121094</v>
-      </c>
-      <c r="E10" s="7">
-        <v>35</v>
-      </c>
-      <c r="F10" s="7">
-        <v>14.5</v>
-      </c>
-      <c r="G10" s="7">
-        <v>9.300000190734863</v>
+      <c r="A10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
-        <v>40452</v>
-      </c>
-      <c r="B11" s="8">
-        <v>23.799999237060547</v>
-      </c>
-      <c r="C11" s="8">
-        <v>9.100000381469727</v>
-      </c>
-      <c r="D11" s="8">
-        <v>45</v>
-      </c>
-      <c r="E11" s="8">
-        <v>32</v>
-      </c>
-      <c r="F11" s="8">
-        <v>16.100000381469727</v>
-      </c>
-      <c r="G11" s="8">
-        <v>11.100000381469727</v>
+      <c r="A11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
-        <v>40483</v>
-      </c>
-      <c r="B12" s="7">
-        <v>25.600000381469727</v>
-      </c>
-      <c r="C12" s="7">
-        <v>10.800000190734863</v>
-      </c>
-      <c r="D12" s="7">
-        <v>49</v>
-      </c>
-      <c r="E12" s="7">
-        <v>33.599998474121094</v>
-      </c>
-      <c r="F12" s="7">
-        <v>14.399999618530273</v>
-      </c>
-      <c r="G12" s="7">
-        <v>13.399999618530273</v>
+      <c r="A12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
-        <v>40513</v>
-      </c>
-      <c r="B13" s="8">
-        <v>17.200000762939453</v>
-      </c>
-      <c r="C13" s="8">
-        <v>12.199999809265137</v>
-      </c>
-      <c r="D13" s="8">
-        <v>43.20000076293945</v>
-      </c>
-      <c r="E13" s="8">
-        <v>35.099998474121094</v>
-      </c>
-      <c r="F13" s="8">
-        <v>15.100000381469727</v>
-      </c>
-      <c r="G13" s="8">
-        <v>15.100000381469727</v>
+      <c r="A13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B14" s="9">
         <f>SUBTOTAL(109, 'Stacked area chart'!B2:B13)</f>
